--- a/Output/Drive/10. Tratamiento de Aguas Residuales.xlsx
+++ b/Output/Drive/10. Tratamiento de Aguas Residuales.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
-  <si>
-    <t xml:space="preserve">Municipio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Plantas de tratamiento en operación, capacidad instalada y volumen tratado de aguas residuales por municipio y tipo de servicio según nivel de tratamiento</t>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Volumen tratado (Millones de metros cúbicos)</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
+    <t xml:space="preserve">13003</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -32,19 +32,19 @@
     <t xml:space="preserve">27</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
+    <t xml:space="preserve">13007</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
+    <t xml:space="preserve">13008</t>
   </si>
   <si>
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
+    <t xml:space="preserve">13010</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">624.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
+    <t xml:space="preserve">13011</t>
   </si>
   <si>
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
+    <t xml:space="preserve">13013</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -68,85 +68,85 @@
     <t xml:space="preserve">42.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
+    <t xml:space="preserve">13012</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
+    <t xml:space="preserve">13014</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
+    <t xml:space="preserve">13015</t>
   </si>
   <si>
     <t xml:space="preserve">5.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
+    <t xml:space="preserve">13017</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
+    <t xml:space="preserve">13018</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
+    <t xml:space="preserve">13019</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+    <t xml:space="preserve">13016</t>
   </si>
   <si>
     <t xml:space="preserve">5.04</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
+    <t xml:space="preserve">13009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13021</t>
   </si>
   <si>
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
+    <t xml:space="preserve">13022</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
+    <t xml:space="preserve">13024</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
+    <t xml:space="preserve">13025</t>
   </si>
   <si>
     <t xml:space="preserve">26.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huichapan</t>
+    <t xml:space="preserve">13027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13029</t>
   </si>
   <si>
     <t xml:space="preserve">16.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
+    <t xml:space="preserve">13030</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
@@ -155,64 +155,58 @@
     <t xml:space="preserve">24.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
+    <t xml:space="preserve">13031</t>
   </si>
   <si>
     <t xml:space="preserve">10.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
+    <t xml:space="preserve">13034</t>
   </si>
   <si>
     <t xml:space="preserve">8.36</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mineral del Chico</t>
+    <t xml:space="preserve">13051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13038</t>
   </si>
   <si>
     <t xml:space="preserve">2.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
+    <t xml:space="preserve">13042</t>
   </si>
   <si>
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
+    <t xml:space="preserve">13044</t>
   </si>
   <si>
     <t xml:space="preserve">0.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Público a/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
+    <t xml:space="preserve">13048</t>
   </si>
   <si>
     <t xml:space="preserve">220.36</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+    <t xml:space="preserve">13049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13052</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
+    <t xml:space="preserve">13053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13046</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -221,88 +215,88 @@
     <t xml:space="preserve">8.5</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+    <t xml:space="preserve">13054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13056</t>
   </si>
   <si>
     <t xml:space="preserve">8.1999999999999993</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecozautla</t>
+    <t xml:space="preserve">13058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13059</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepeapulco</t>
+    <t xml:space="preserve">13060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13061</t>
   </si>
   <si>
     <t xml:space="preserve">30.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+    <t xml:space="preserve">13062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13063</t>
   </si>
   <si>
     <t xml:space="preserve">104.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
+    <t xml:space="preserve">13069</t>
   </si>
   <si>
     <t xml:space="preserve">74.599999999999994</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
+    <t xml:space="preserve">13073</t>
   </si>
   <si>
     <t xml:space="preserve">6.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
+    <t xml:space="preserve">13076</t>
   </si>
   <si>
     <t xml:space="preserve">290.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
+    <t xml:space="preserve">13077</t>
   </si>
   <si>
     <t xml:space="preserve">5.69</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
+    <t xml:space="preserve">13066</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
+    <t xml:space="preserve">13078</t>
   </si>
   <si>
     <t xml:space="preserve">8.6999999999999993</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
+    <t xml:space="preserve">13080</t>
   </si>
   <si>
     <t xml:space="preserve">1.1000000000000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimapán</t>
+    <t xml:space="preserve">13082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13084</t>
   </si>
   <si>
     <t xml:space="preserve">NS</t>
@@ -950,10 +944,10 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -961,21 +955,21 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -983,43 +977,43 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1027,21 +1021,21 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1049,21 +1043,21 @@
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1071,21 +1065,21 @@
         <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1087,7 @@
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
@@ -1104,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
@@ -1115,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>84</v>
@@ -1126,7 +1120,7 @@
         <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>86</v>
@@ -1137,7 +1131,7 @@
         <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
@@ -1148,7 +1142,7 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>90</v>
@@ -1159,7 +1153,7 @@
         <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
@@ -1173,29 +1167,18 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
         <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
